--- a/finding results_hs300/results/results_summary.xlsx
+++ b/finding results_hs300/results/results_summary.xlsx
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.006788883641818149</v>
+        <v>0.002828592118234412</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -446,7 +446,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1.579224313396698</v>
+        <v>1.283221324651379</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -454,7 +454,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.008878647734248074</v>
+        <v>0.003794135583319248</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -462,7 +462,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1.495842844047176</v>
+        <v>1.31036618255656</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -470,7 +470,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.01486031494673725</v>
+        <v>0.003064617211753033</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -478,7 +478,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>2.513467915728311</v>
+        <v>1.50155044551299</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -486,7 +486,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.01092960945928485</v>
+        <v>0.00340232916163318</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -494,7 +494,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1.986358551335226</v>
+        <v>1.750041131358975</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -502,7 +502,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.004505504995661744</v>
+        <v>0.007472127735457882</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -510,7 +510,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>1.252793671626495</v>
+        <v>1.676108145957955</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -518,7 +518,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.006251290709155831</v>
+        <v>0.01190341370698671</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -526,7 +526,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>1.303149649799933</v>
+        <v>1.973061357654239</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -534,7 +534,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.008940117647058824</v>
+        <v>0.00553259420289855</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -542,7 +542,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>1.476807626429144</v>
+        <v>1.101830578813225</v>
       </c>
     </row>
   </sheetData>
